--- a/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD11FCF-2A48-46B5-B4C6-705D53F79FA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8485168-9C80-4DD6-9DF8-AD1354F515D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="15375" windowHeight="7995" xr2:uid="{EEE36F96-FF2A-466B-BBC3-0DC5B31D1F19}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{EEE36F96-FF2A-466B-BBC3-0DC5B31D1F19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>No</t>
   </si>
@@ -52,13 +52,260 @@
   </si>
   <si>
     <t>Hasil</t>
+  </si>
+  <si>
+    <t>Muhamad Ngafifi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kemajuan Teknologi dan Pola Hidup Manusia dallam Perspektif Sosial Budaya </t>
+  </si>
+  <si>
+    <t>Analisis Deskriptif</t>
+  </si>
+  <si>
+    <t>Perani Rosyani</t>
+  </si>
+  <si>
+    <t>1. Mengetahui proses perkembangan kemajuan teknologi.                    2. Mengetahui perubahan pola hidup manusia akibat kemajuan teknologi.                    3. Mengetahui pengaruh kemajuan teknologi di bidang sosial budaya.                 4. mendapatkan solusi dalam mengatasi dampak negatif dari kemajuan teknologi.</t>
+  </si>
+  <si>
+    <t>1. Kemajuan teknologi terus berkembang sangat pesar dan melahirkan masyarakat digital.                                  2. Terjadi perubahan pola hidup manusia akibat kemajuan teknologi sehingga menjadi lebih pragmatis, hedonus, sekuler, dam melahirkan generasi instan namun juga mengedepankan efektifitas dan efisiensi dalam tingkah laku dan tindakannya.                             3. Kemajuan teknologi berwajah ganda karena menimbulkan pengaruh positif dan negatif bagi kehidupan manusia.                                          4. Upaya untuk menekan dan mengatasi dampak negatif dari kemajuan teknologi dapat dilakukan dengan mensinergiskan peran keluarga, pendidikan, masyarakat, dan negara.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Membuat sistem pengenalan wajah dengan berdasarkan analogi 'memori otak manusia' yang mampu mengenali seseorang melalui memori gambaran wajah orang yang telah dilihat sebelumnya dan diaplikasikan menggunakan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principal Component Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PCA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PCA).               2. Metode jarak (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canbera Distance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pengenalan Wajah Menggunakan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principal Component Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PCA) dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Canberra Distance</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Mengekstrajsi gambar menggunakan PCA cukup rumit  karena harus mentraspose matriks ukuran mxm menjadi 1xn.  2.Tingkat kesamaan yang dihasilkan setelah proses reduksi dan ekstraksi menggunakan PCA didapatkan rata-rata nilai untuk </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Canbera distance </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>adalah 77,59</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Dian Esti Pratiwi   2. Agus Harjoko</t>
+  </si>
+  <si>
+    <r>
+      <t>Implementasi Pengenalan Wajah Menggunakan PCA (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principal Component Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Mengimplementasikan sistem identifikasi wajah yang merupakan salah satu informasi biologis dan memiliki tingkat keakuratan tinggi sehingga dapat dijadikan sebagai sistem pencarian seseorang di dalam sebuah gambar berisi wajah</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PCA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hasil pengujian menunjukkan dari 16 sampel yang diujikan sebanyak 64 kali pengenalan menghasilkan 53 pengenalan benar dan 11 pengenalan salah.       2. Wajah sejumlah 160 wajah dari delapan orang memerlukan waktu kurang lebih dua menit pada setiap satu kali proses pengenalan.                                                    3. Prosentase keberhasilan pengenalan wajah pada sampel yang dilakukan adalah 82,81%.         4. Faktor yang mempengaruhi keberhasilan pengenalan yaitu kesesuaian ekspresi antara data latih dengan data uji, faktor pencahayaan (semakin terang, semakin baik), dan jarak wajah dengan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>webcam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adalah 25 cm.</t>
+    </r>
+  </si>
+  <si>
+    <t>Dian Parikesit</t>
+  </si>
+  <si>
+    <t>Face Recognation Menggunakan Metode PCA</t>
+  </si>
+  <si>
+    <t>Membuat software yang mampu mengidentifikasi wajah seseorang berdasarkan eigendace yang dimiliki suatu image dan dibandingkan dengan image yang menjadi training pada database.</t>
+  </si>
+  <si>
+    <t>Principal Component Analysis (PCA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +313,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -83,12 +358,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,48 +717,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB84D94A-7B16-4F43-B3F4-B11B622CF43E}">
-  <dimension ref="B2:H4"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1080" ySplit="630" topLeftCell="B6" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="33.7109375" style="7" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3">
+    <row r="3" spans="2:8" ht="405" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2014</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="293.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>2</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="327.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="4">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="4">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>10</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>11</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>12</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8485168-9C80-4DD6-9DF8-AD1354F515D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333F518-092A-46C2-B2DC-FF9E9774F9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{EEE36F96-FF2A-466B-BBC3-0DC5B31D1F19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>No</t>
   </si>
@@ -299,6 +299,204 @@
   </si>
   <si>
     <t>Principal Component Analysis (PCA)</t>
+  </si>
+  <si>
+    <t>Jumlah feature yang sedikit PCA memberikan hasil yang lebih baik bila dibandingkan dengan penggunaan PCA, bahwa nilai minimal terletak pada data ke 12, data ke 12 merupakan orang ke 6 pose ke 2. Sehingga data yang diuji tersebut dikenali sebagai orang yang ke 6 pose dan jumlah ciri ke 10 adalah yang paling minimal.</t>
+  </si>
+  <si>
+    <t>Derisma</t>
+  </si>
+  <si>
+    <t>Faktor-Faktor yang Mempengaruhi Sistem Pengenalan Wajah Menggunakan Metode Eigenface pada Perangkat Mobile Berbasis Andorid</t>
+  </si>
+  <si>
+    <t>Berbagai aplikasi dari alat dengan kemampuan pengenalan wajah  terbentang luas dari pencarian penjahat, kriminalitas, sistem akses keruangan, sampai interaksi manusia dengan komputer</t>
+  </si>
+  <si>
+    <t>Algotima eigenface berasal dari Libray Open CV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Menggunakan kamera yanf ada pada </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smartphone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> android untuk menangkap wajah seseorang kemudian dibandingkan dengan wajah yang sebelumnya telah disimpan dan dilatih di dalam database. Jika hasil tangkapan kamera cocok dengan identitas wajah pada database, maka identifikasi wajah berhasil, jika tidak cocok makan akan dinyatakan gagal.                                              2. Hasil pemrosesan pengenalan wajah dengan menggunakan metode  tersebut didapatkan sangat sensitif karena bergantung pada pencahayaan, jarak antara subjek dan kamera, sudut pandang wajah, ekspresi/ mimik wajah, pemakaian aksesoris, perubahan latar (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>background</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>1. RD. Kusumanto         2. Alan Novi Tompunu</t>
+  </si>
+  <si>
+    <t>Pengolahan Citra Digital untuk Mendeteksi Obyek Menggunakan Pengolahan Warna Model Normalisasi RGB</t>
+  </si>
+  <si>
+    <t>Mendeteksi sebuah objek dengan memanfaatkan pengolahan warna gambar serperti salah satunya model RGB atau normalisasi RGB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Color Image </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>atau RGB (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red, green, blue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)                      2. Citra digital </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Black and White</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)                                3. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Binary Image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                   4. Segmentasi warna normalisasi RGB                                    5. Pengolahan citra menggunakan EmguCV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Model normalisasi RGB ini sangat mudah untuk diaplikasikan khususnya untuk mendeteksi onjek dengan warna-warna tertentu.                                                                                     2. Berdasarkan persamaan 6 , warna putih dan hitam sulit dibedakan karena memiliki nilai r,g,b yang sama untuk kedua warna                                                                           3. Pada saat ini nilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>brightness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 0 hasil yang dicapai untuk pengenalan objek berupa bola adalah maksimal</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Nazaruddin Ahmad                                2. Arifyanto Hadinegoro </t>
+  </si>
+  <si>
+    <t>Metode Histogram Equalization untuk Perbaikan Citra Digital</t>
+  </si>
+  <si>
+    <t>Tidak semua citra digital mempunyai tampilan visual yang memuaskan mata manusia karena adanya noise, kualitas pencahayaan pada citra digital yang terlalu gelap atau terlalu terang sehingga diperlukan metode untuk dapat memperbaiki kualitas citra tersebut</t>
+  </si>
+  <si>
+    <t>Histogram equalization</t>
   </si>
 </sst>
 </file>
@@ -720,19 +918,19 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1080" ySplit="630" topLeftCell="B6" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="H1" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <pane xSplit="1365" ySplit="630" topLeftCell="C9" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
     <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="33.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
@@ -847,39 +1045,75 @@
       <c r="G6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="345" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2011</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333F518-092A-46C2-B2DC-FF9E9774F9CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57704C56-CEED-47AF-8494-2A1275275254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{EEE36F96-FF2A-466B-BBC3-0DC5B31D1F19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>No</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Perani Rosyani</t>
   </si>
   <si>
-    <t>1. Mengetahui proses perkembangan kemajuan teknologi.                    2. Mengetahui perubahan pola hidup manusia akibat kemajuan teknologi.                    3. Mengetahui pengaruh kemajuan teknologi di bidang sosial budaya.                 4. mendapatkan solusi dalam mengatasi dampak negatif dari kemajuan teknologi.</t>
-  </si>
-  <si>
-    <t>1. Kemajuan teknologi terus berkembang sangat pesar dan melahirkan masyarakat digital.                                  2. Terjadi perubahan pola hidup manusia akibat kemajuan teknologi sehingga menjadi lebih pragmatis, hedonus, sekuler, dam melahirkan generasi instan namun juga mengedepankan efektifitas dan efisiensi dalam tingkah laku dan tindakannya.                             3. Kemajuan teknologi berwajah ganda karena menimbulkan pengaruh positif dan negatif bagi kehidupan manusia.                                          4. Upaya untuk menekan dan mengatasi dampak negatif dari kemajuan teknologi dapat dilakukan dengan mensinergiskan peran keluarga, pendidikan, masyarakat, dan negara.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Membuat sistem pengenalan wajah dengan berdasarkan analogi 'memori otak manusia' yang mampu mengenali seseorang melalui memori gambaran wajah orang yang telah dilihat sebelumnya dan diaplikasikan menggunakan metode </t>
     </r>
@@ -497,6 +491,391 @@
   </si>
   <si>
     <t>Histogram equalization</t>
+  </si>
+  <si>
+    <t>Sebuah perangkat lunak pengolah citra digital telah berhasil dikonstruksi. Perangkat tersebut dapat melakukan peningkatan kontras citra dengan metode histogram equalization dan hasil yang diberikan dapat meningkatkan kualitas citra, sehingga informasi yang ada pada citra lebih jelas terlihat.</t>
+  </si>
+  <si>
+    <t>1. Abdu Rakhman Syakhaka                                           2. Diyah Puspitaningrum                                                            3. Endina Putri Purwandani</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Perbandingan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(PCA) dengan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hidden Markov Model (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HMM) dalam Pengenalan Identitas Seseorang Melalui Wajah</t>
+    </r>
+  </si>
+  <si>
+    <t>Mengetahui perbedaan, kekurangan, kelebihan, dan perbandingan dari metode PCA dan metode HMM sebagai pengenalan identitas melalui wajah</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(PCA)                                    2. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hidden Markov Model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(HMM)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(PCA) dan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Hidden Markov Model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(HMM) berhasil melakukan pengenalan wajah seseorang dengan hasil PCA secara umum lebih baik daripada HMM.                                                                                                              2. Pengenalan wajah terbaik diperoleh dari citra wajah manusia tanpa background dengan tingkat akurasi tertinggi sebesar 86,6% pada PCA sedangkan HMM sebesar 77,7% dengan maksimum iterasinya 2000 dan toleransi 0,1                                                                                   3. Metode PCA lebih cepat dalam pengenalan wajah dari 1-1,5 detik sedangkan pada metode HMM 2-7,5 detik</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Salamun                                                                      2. Firman Wazir</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rancang Bangun Sistem Pengenalan Wajah dengan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principal Component Analysis</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Bagaimana dapat mengenali suatu pola, khususnya pola wajah                                          2.  Mengukur tingkat keberhasilan pengenalan wajah dengan menggunakan algoritma </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(PCA) sesuai dengan batasan yang telah ditentukan                                                                          3. Menghasilkan aplikasi pengenalan wajah menggunakan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                                                                     4. Apakah pengenalan wajah dengan PCA dapat mencapai 50%?                                                               5. Bagaimana melakukan proses pengenalan citra wajah menggunakan metode PCA?</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Mengetahui proses perkembangan kemajuan teknologi.                    2. Mengetahui perubahan pola hidup manusia akibat kemajuan teknologi.                    3. Mengetahui pengaruh kemajuan teknologi di bidang sosial budaya.                               4. mendapatkan solusi dalam mengatasi dampak negatif dari kemajuan teknologi.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Pengenalan pola wajah dapat dikenali menggunakan nilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pixel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dari data wajah                                                                                                          2. Proses pengenalan wajah menggunakan pendekatan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Principal Component Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sensitif terhadap perubahan cahaya, jarak, ekspresi wajah, sudut pandang wajah dan perubahan wajah yang terlalu ekstrim. Jika citra yang digunakan sebagai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set maupun sebagai citra input memiliki intensitas cahaya yang berbeda dan tidak berada pada posisi yang sama dengan citra </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> set maka proses tersebut tidak dapat memberikan hasil yang akurat.                                             3. Metodr </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Principal Component Analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dapat diimplementasikan  untuk pengenalan wajah dengan tingkat akurasi 81%.                                                                                           4. Wajah dapat dikenali apabila nilai jarak antara </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dengan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>image test</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> diatas nilai </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>threshold.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Kemajuan teknologi terus berkembang sangat pesar dan melahirkan masyarakat digital.                                  2. Terjadi perubahan pola hidup manusia akibat kemajuan teknologi sehingga menjadi lebih pragmatis, hedonus, sekuler, dam melahirkan generasi instan namun juga mengedepankan efektifitas dan efisiensi dalam tingkah laku dan tindakannya.                                                                                          3. Kemajuan teknologi berwajah ganda karena menimbulkan pengaruh positif dan negatif bagi kehidupan manusia.                                          4. Upaya untuk menekan dan mengatasi dampak negatif dari kemajuan teknologi dapat dilakukan dengan mensinergiskan peran keluarga, pendidikan, masyarakat, dan negara.</t>
   </si>
 </sst>
 </file>
@@ -918,10 +1297,10 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1365" ySplit="630" topLeftCell="C9" activePane="bottomRight"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:C1048576"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <pane xSplit="1365" ySplit="630" topLeftCell="D2" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,9 +1308,9 @@
     <col min="2" max="2" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24" style="7" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="33.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="34.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -971,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="293.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -991,16 +1370,16 @@
         <v>2017</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="327.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,22 +1387,22 @@
         <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>2013</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="225" customHeight="1" x14ac:dyDescent="0.25">
@@ -1031,22 +1410,22 @@
         <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="4">
         <v>2012</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="345" customHeight="1" x14ac:dyDescent="0.25">
@@ -1054,22 +1433,22 @@
         <v>5</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4">
         <v>2016</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="233.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,22 +1456,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
         <v>2011</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="312.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,43 +1479,69 @@
         <v>7</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="4">
         <v>2012</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="306.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2015</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2016</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="4">

--- a/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
+++ b/PROJEK AKHIR KITA SEBELUM UTS/State of The Art.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah 6\ProjekBersama\PROJEK AKHIR KITA SEBELUM UTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57704C56-CEED-47AF-8494-2A1275275254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495294EB-4FC0-4F72-956F-ECF5E990F672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="15375" windowHeight="7995" xr2:uid="{EEE36F96-FF2A-466B-BBC3-0DC5B31D1F19}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -876,6 +876,253 @@
   </si>
   <si>
     <t>1. Kemajuan teknologi terus berkembang sangat pesar dan melahirkan masyarakat digital.                                  2. Terjadi perubahan pola hidup manusia akibat kemajuan teknologi sehingga menjadi lebih pragmatis, hedonus, sekuler, dam melahirkan generasi instan namun juga mengedepankan efektifitas dan efisiensi dalam tingkah laku dan tindakannya.                                                                                          3. Kemajuan teknologi berwajah ganda karena menimbulkan pengaruh positif dan negatif bagi kehidupan manusia.                                          4. Upaya untuk menekan dan mengatasi dampak negatif dari kemajuan teknologi dapat dilakukan dengan mensinergiskan peran keluarga, pendidikan, masyarakat, dan negara.</t>
+  </si>
+  <si>
+    <t>A. Firmansyah</t>
+  </si>
+  <si>
+    <t>Dasar-Dasar Pemrograman Matlab</t>
+  </si>
+  <si>
+    <t>Menjelaskan menganai dasar-dasar pemrograman matlab secara dtail</t>
+  </si>
+  <si>
+    <t>Menjelaskan semua mengenai dasar-dasar pemrograman matlab dan menjelaskan beberapa fasilitas yang dimiliki matlab.</t>
+  </si>
+  <si>
+    <t>Budi Cahyono</t>
+  </si>
+  <si>
+    <t>Penggunaan Software Matrix Laboratory (Matlab) dalam Pembelajaran Aljabar Linier</t>
+  </si>
+  <si>
+    <t>Pembelajaran matematika Aljabar Linier menggunakan software Matlab</t>
+  </si>
+  <si>
+    <t>1. Dodit Suprianto                                              2. Rini Nur Hasanah                            3. Purnomo Budi Santosa</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sistem Pengenalan Waja Secara Real-Time dengan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adaboost, Eigenfface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCA &amp; MySQL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adaboost                                                  2. Eigenface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PCA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Perancangan dan implementasi pengenalan wajah dengan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adaboost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eigenface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PCA telah berhasil dilakukan dalam penelitian.                                                                            2. Rata-rata tingkat keberhasilan pengenalan wajah dengan kedua metode tersebut mencapai 80% pada berbagai kondisi berbedda (jarak objek dengan sensor, pencahayaan, posisi, atribut, dan mimik muka)                                                                               3. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Adaboost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> dan </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eigenface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PCA memiliki kelebihan pada proses kecepatan mengambil keputusan untuk mengenali wajah di kondisi </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real-time.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Matlab adalah suatu paket komputasi numerik sangat kuat dan memungkinkan untuk digunakan sebagai software alternatif dalam pembelajaran matematika. Dengan Matlab dihawapkan siswa dapat belajar matematika dengan cepat dan lebih mudah serta berkualitas.                                                               2.Dengan adanya aplikasi ini dapat mengefisienkan biaya dan juga waktu dalan operasional pembelajaran.                                                                        3. Memungkinkan siswa mampu menggali lebih banyak tentang konsep numerik karena eksperimen numerik dapat dengan mudah dilakukan serta didukung dengan representasi grafik.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.Mengimplementasikan metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adaboost </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">dan Metode </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Eigenface </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">PCA ke dalam sebuah sistem pengenalan wajah secara </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>real-time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.                                  2.Pengenalan wajah yang diintegrasikan dengan data profil bermanfaat di berbagai sektor, misalnya bidang keamanan, pengawasan, kontrol akses, robotika, intelejen, militer, presensi dan lain-lain</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1297,10 +1544,10 @@
   <dimension ref="B2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1365" ySplit="630" topLeftCell="D2" activePane="bottomRight"/>
+      <pane xSplit="1365" ySplit="630" topLeftCell="A12" activePane="bottomRight"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,7 +1652,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -1543,38 +1790,70 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="276" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="63" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2007</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="14" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>12</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2013</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="H14" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
